--- a/Experiment 2/Trace Files/newreno-reno/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Reno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>CBR</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-349787584"/>
-        <c:axId val="-349796832"/>
+        <c:axId val="-278466448"/>
+        <c:axId val="-278465904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-349787584"/>
+        <c:axId val="-278466448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-349796832"/>
+        <c:crossAx val="-278465904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-349796832"/>
+        <c:axId val="-278465904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-349787584"/>
+        <c:crossAx val="-278466448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-349787040"/>
-        <c:axId val="-349793568"/>
+        <c:axId val="-278457200"/>
+        <c:axId val="-278470256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-349787040"/>
+        <c:axId val="-278457200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-349793568"/>
+        <c:crossAx val="-278470256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-349793568"/>
+        <c:axId val="-278470256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.5"/>
@@ -1316,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-349787040"/>
+        <c:crossAx val="-278457200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>34.278471910100002</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.42229595501570805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-reno/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Reno</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>CBR</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -503,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-278466448"/>
-        <c:axId val="-278465904"/>
+        <c:axId val="1739348336"/>
+        <c:axId val="1739351056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-278466448"/>
+        <c:axId val="1739348336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-278465904"/>
+        <c:crossAx val="1739351056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-278465904"/>
+        <c:axId val="1739351056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-278466448"/>
+        <c:crossAx val="1739348336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-278457200"/>
-        <c:axId val="-278470256"/>
+        <c:axId val="1739355952"/>
+        <c:axId val="1739349968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-278457200"/>
+        <c:axId val="1739355952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-278470256"/>
+        <c:crossAx val="1739349968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-278470256"/>
+        <c:axId val="1739349968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.5"/>
@@ -1319,7 +1316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-278457200"/>
+        <c:crossAx val="1739355952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3005,15 +3002,6 @@
         <v>34.278471910100002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.42229595501570805</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
